--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gphb5-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Gphb5</t>
   </si>
   <si>
     <t>Tshr</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5376454152333</v>
+        <v>0.658133</v>
       </c>
       <c r="H2">
-        <v>0.5376454152333</v>
+        <v>1.974399</v>
       </c>
       <c r="I2">
-        <v>0.1994476466300747</v>
+        <v>0.2075098116330412</v>
       </c>
       <c r="J2">
-        <v>0.1994476466300747</v>
+        <v>0.2075098116330412</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.200217989688372</v>
+        <v>0.22859</v>
       </c>
       <c r="N2">
-        <v>0.200217989688372</v>
+        <v>0.68577</v>
       </c>
       <c r="O2">
-        <v>0.0734120546528184</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="P2">
-        <v>0.0734120546528184</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="Q2">
-        <v>0.1076462842031814</v>
+        <v>0.15044262247</v>
       </c>
       <c r="R2">
-        <v>0.1076462842031814</v>
+        <v>1.35398360223</v>
       </c>
       <c r="S2">
-        <v>0.01464186153478306</v>
+        <v>0.01396614277506915</v>
       </c>
       <c r="T2">
-        <v>0.01464186153478306</v>
+        <v>0.01396614277506915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5376454152333</v>
+        <v>0.658133</v>
       </c>
       <c r="H3">
-        <v>0.5376454152333</v>
+        <v>1.974399</v>
       </c>
       <c r="I3">
-        <v>0.1994476466300747</v>
+        <v>0.2075098116330412</v>
       </c>
       <c r="J3">
-        <v>0.1994476466300747</v>
+        <v>0.2075098116330412</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.10094435494406</v>
+        <v>2.180983666666667</v>
       </c>
       <c r="N3">
-        <v>2.10094435494406</v>
+        <v>6.542951</v>
       </c>
       <c r="O3">
-        <v>0.7703335851475741</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="P3">
-        <v>0.7703335851475741</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="Q3">
-        <v>1.129563100095957</v>
+        <v>1.435377323494333</v>
       </c>
       <c r="R3">
-        <v>1.129563100095957</v>
+        <v>12.918395911449</v>
       </c>
       <c r="S3">
-        <v>0.1536412206777919</v>
+        <v>0.1332513639212586</v>
       </c>
       <c r="T3">
-        <v>0.1536412206777919</v>
+        <v>0.1332513639212586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5376454152333</v>
+        <v>0.658133</v>
       </c>
       <c r="H4">
-        <v>0.5376454152333</v>
+        <v>1.974399</v>
       </c>
       <c r="I4">
-        <v>0.1994476466300747</v>
+        <v>0.2075098116330412</v>
       </c>
       <c r="J4">
-        <v>0.1994476466300747</v>
+        <v>0.2075098116330412</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.426155268738376</v>
+        <v>0.173517</v>
       </c>
       <c r="N4">
-        <v>0.426155268738376</v>
+        <v>0.520551</v>
       </c>
       <c r="O4">
-        <v>0.1562543601996075</v>
+        <v>0.05108844029465279</v>
       </c>
       <c r="P4">
-        <v>0.1562543601996075</v>
+        <v>0.05108844029465278</v>
       </c>
       <c r="Q4">
-        <v>0.2291204264147027</v>
+        <v>0.114197263761</v>
       </c>
       <c r="R4">
-        <v>0.2291204264147027</v>
+        <v>1.027775373849</v>
       </c>
       <c r="S4">
-        <v>0.03116456441749972</v>
+        <v>0.01060135262216927</v>
       </c>
       <c r="T4">
-        <v>0.03116456441749972</v>
+        <v>0.01060135262216927</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.15802647820597</v>
+        <v>0.658133</v>
       </c>
       <c r="H5">
-        <v>2.15802647820597</v>
+        <v>1.974399</v>
       </c>
       <c r="I5">
-        <v>0.8005523533699253</v>
+        <v>0.2075098116330412</v>
       </c>
       <c r="J5">
-        <v>0.8005523533699253</v>
+        <v>0.2075098116330412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.200217989688372</v>
+        <v>0.8133136666666667</v>
       </c>
       <c r="N5">
-        <v>0.200217989688372</v>
+        <v>2.439941</v>
       </c>
       <c r="O5">
-        <v>0.0734120546528184</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="P5">
-        <v>0.0734120546528184</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="Q5">
-        <v>0.4320757231606767</v>
+        <v>0.5352685633843334</v>
       </c>
       <c r="R5">
-        <v>0.4320757231606767</v>
+        <v>4.817417070459</v>
       </c>
       <c r="S5">
-        <v>0.05877019311803534</v>
+        <v>0.04969095231454425</v>
       </c>
       <c r="T5">
-        <v>0.05877019311803534</v>
+        <v>0.04969095231454423</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.15802647820597</v>
+        <v>2.235316</v>
       </c>
       <c r="H6">
-        <v>2.15802647820597</v>
+        <v>6.705948</v>
       </c>
       <c r="I6">
-        <v>0.8005523533699253</v>
+        <v>0.7047967540000627</v>
       </c>
       <c r="J6">
-        <v>0.8005523533699253</v>
+        <v>0.7047967540000626</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.10094435494406</v>
+        <v>0.22859</v>
       </c>
       <c r="N6">
-        <v>2.10094435494406</v>
+        <v>0.68577</v>
       </c>
       <c r="O6">
-        <v>0.7703335851475741</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="P6">
-        <v>0.7703335851475741</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="Q6">
-        <v>4.533893547206644</v>
+        <v>0.5109708844399999</v>
       </c>
       <c r="R6">
-        <v>4.533893547206644</v>
+        <v>4.59873795996</v>
       </c>
       <c r="S6">
-        <v>0.6166923644697822</v>
+        <v>0.04743530928155325</v>
       </c>
       <c r="T6">
-        <v>0.6166923644697822</v>
+        <v>0.04743530928155324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.235316</v>
+      </c>
+      <c r="H7">
+        <v>6.705948</v>
+      </c>
+      <c r="I7">
+        <v>0.7047967540000627</v>
+      </c>
+      <c r="J7">
+        <v>0.7047967540000626</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.180983666666667</v>
+      </c>
+      <c r="N7">
+        <v>6.542951</v>
+      </c>
+      <c r="O7">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="P7">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="Q7">
+        <v>4.875187685838667</v>
+      </c>
+      <c r="R7">
+        <v>43.87668917254801</v>
+      </c>
+      <c r="S7">
+        <v>0.4525816298453535</v>
+      </c>
+      <c r="T7">
+        <v>0.4525816298453534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.235316</v>
+      </c>
+      <c r="H8">
+        <v>6.705948</v>
+      </c>
+      <c r="I8">
+        <v>0.7047967540000627</v>
+      </c>
+      <c r="J8">
+        <v>0.7047967540000626</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.173517</v>
+      </c>
+      <c r="N8">
+        <v>0.520551</v>
+      </c>
+      <c r="O8">
+        <v>0.05108844029465279</v>
+      </c>
+      <c r="P8">
+        <v>0.05108844029465278</v>
+      </c>
+      <c r="Q8">
+        <v>0.387865326372</v>
+      </c>
+      <c r="R8">
+        <v>3.490787937348</v>
+      </c>
+      <c r="S8">
+        <v>0.03600696688659729</v>
+      </c>
+      <c r="T8">
+        <v>0.03600696688659728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.235316</v>
+      </c>
+      <c r="H9">
+        <v>6.705948</v>
+      </c>
+      <c r="I9">
+        <v>0.7047967540000627</v>
+      </c>
+      <c r="J9">
+        <v>0.7047967540000626</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8133136666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.439941</v>
+      </c>
+      <c r="O9">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="P9">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="Q9">
+        <v>1.818013052118667</v>
+      </c>
+      <c r="R9">
+        <v>16.362117469068</v>
+      </c>
+      <c r="S9">
+        <v>0.1687728479865586</v>
+      </c>
+      <c r="T9">
+        <v>0.1687728479865586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.15802647820597</v>
-      </c>
-      <c r="H7">
-        <v>2.15802647820597</v>
-      </c>
-      <c r="I7">
-        <v>0.8005523533699253</v>
-      </c>
-      <c r="J7">
-        <v>0.8005523533699253</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.426155268738376</v>
-      </c>
-      <c r="N7">
-        <v>0.426155268738376</v>
-      </c>
-      <c r="O7">
-        <v>0.1562543601996075</v>
-      </c>
-      <c r="P7">
-        <v>0.1562543601996075</v>
-      </c>
-      <c r="Q7">
-        <v>0.9196543537643962</v>
-      </c>
-      <c r="R7">
-        <v>0.9196543537643962</v>
-      </c>
-      <c r="S7">
-        <v>0.1250897957821077</v>
-      </c>
-      <c r="T7">
-        <v>0.1250897957821077</v>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2781263333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.834379</v>
+      </c>
+      <c r="I10">
+        <v>0.08769343436689611</v>
+      </c>
+      <c r="J10">
+        <v>0.0876934343668961</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.22859</v>
+      </c>
+      <c r="N10">
+        <v>0.68577</v>
+      </c>
+      <c r="O10">
+        <v>0.06730352972305123</v>
+      </c>
+      <c r="P10">
+        <v>0.06730352972305123</v>
+      </c>
+      <c r="Q10">
+        <v>0.06357689853666666</v>
+      </c>
+      <c r="R10">
+        <v>0.57219208683</v>
+      </c>
+      <c r="S10">
+        <v>0.005902077666428834</v>
+      </c>
+      <c r="T10">
+        <v>0.005902077666428833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2781263333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.834379</v>
+      </c>
+      <c r="I11">
+        <v>0.08769343436689611</v>
+      </c>
+      <c r="J11">
+        <v>0.0876934343668961</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.180983666666667</v>
+      </c>
+      <c r="N11">
+        <v>6.542951</v>
+      </c>
+      <c r="O11">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="P11">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="Q11">
+        <v>0.6065889902698889</v>
+      </c>
+      <c r="R11">
+        <v>5.459300912429001</v>
+      </c>
+      <c r="S11">
+        <v>0.05631189023964042</v>
+      </c>
+      <c r="T11">
+        <v>0.05631189023964041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2781263333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.834379</v>
+      </c>
+      <c r="I12">
+        <v>0.08769343436689611</v>
+      </c>
+      <c r="J12">
+        <v>0.0876934343668961</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.173517</v>
+      </c>
+      <c r="N12">
+        <v>0.520551</v>
+      </c>
+      <c r="O12">
+        <v>0.05108844029465279</v>
+      </c>
+      <c r="P12">
+        <v>0.05108844029465278</v>
+      </c>
+      <c r="Q12">
+        <v>0.048259646981</v>
+      </c>
+      <c r="R12">
+        <v>0.434336822829</v>
+      </c>
+      <c r="S12">
+        <v>0.004480120785886225</v>
+      </c>
+      <c r="T12">
+        <v>0.004480120785886224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2781263333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.834379</v>
+      </c>
+      <c r="I13">
+        <v>0.08769343436689611</v>
+      </c>
+      <c r="J13">
+        <v>0.0876934343668961</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8133136666666667</v>
+      </c>
+      <c r="N13">
+        <v>2.439941</v>
+      </c>
+      <c r="O13">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="P13">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="Q13">
+        <v>0.2262039479598889</v>
+      </c>
+      <c r="R13">
+        <v>2.035835531639</v>
+      </c>
+      <c r="S13">
+        <v>0.02099934567494063</v>
+      </c>
+      <c r="T13">
+        <v>0.02099934567494063</v>
       </c>
     </row>
   </sheetData>
